--- a/biology/Médecine/Rameau_périnéal_du_nerf_cutané_fémoral_postérieur/Rameau_périnéal_du_nerf_cutané_fémoral_postérieur.xlsx
+++ b/biology/Médecine/Rameau_périnéal_du_nerf_cutané_fémoral_postérieur/Rameau_périnéal_du_nerf_cutané_fémoral_postérieur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rameau_p%C3%A9rin%C3%A9al_du_nerf_cutan%C3%A9_f%C3%A9moral_post%C3%A9rieur</t>
+          <t>Rameau_périnéal_du_nerf_cutané_fémoral_postérieur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les rameaux périnéaux du nerf cutané fémoral postérieur sont des nerfs sensitifs du membre inférieur.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rameau_p%C3%A9rin%C3%A9al_du_nerf_cutan%C3%A9_f%C3%A9moral_post%C3%A9rieur</t>
+          <t>Rameau_périnéal_du_nerf_cutané_fémoral_postérieur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les rameaux périnéaux du nerf cutané fémoral postérieur sont des branches du nerf cutané fémoral postérieur qui partent en avant et en dedans le long du sillon génito-crural.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rameau_p%C3%A9rin%C3%A9al_du_nerf_cutan%C3%A9_f%C3%A9moral_post%C3%A9rieur</t>
+          <t>Rameau_périnéal_du_nerf_cutané_fémoral_postérieur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Zone d'innervation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les rameaux périnéaux du nerf cutané fémoral postérieur se distribuent et innervent les téguments du périnée, le scrotum chez l'homme et les grandes lèvres chez la femme.
 Ils communiquent avec les nerfs anaux inférieurs et les nerfs scrotaux postérieurs.
